--- a/biology/Zoologie/Dasypeltis_taylori/Dasypeltis_taylori.xlsx
+++ b/biology/Zoologie/Dasypeltis_taylori/Dasypeltis_taylori.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dasypeltis taylori est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dasypeltis taylori est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre au Nord de la Somalie et à Djibouti.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dasypeltis taylori imite par son aspect la vipère Echis pyramidum[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dasypeltis taylori imite par son aspect la vipère Echis pyramidum.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, taylori, lui a été donné en l'honneur du Colonel R. H. R. Taylor qui a collecté l'holotype en 1932[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, taylori, lui a été donné en l'honneur du Colonel R. H. R. Taylor qui a collecté l'holotype en 1932.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bates, M.F. &amp; D.G. Broadley 2018 : « A revision of the egg-eating snakes of the genus Dasypeltis Wagler (Squamata: Colubridae: Colubrinae) in north-eastern Africa and south-western Arabia, with descriptions of three new species ». Indago, vol. 34, n. 1, pp. 1-95 (lire en ligne).</t>
         </is>
